--- a/finetuning/it_datasets/it_dataset/it_kebili_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_kebili_dataset.xlsx
@@ -654,7 +654,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a great place to eat, check out Bon Gusto located at C206. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-01:00. To get there, use these GPS coordinates: 33.7080489, 8.9715127. For more details, call them at 22 900 717.</t>
+          <t>Bon Gusto is a restaurant located in Kebili, Tunisia. It offers a wide range of dishes, including traditional Tunisian cuisine and international fare. The restaurant is open from 9am to 1am, and is closed on Sundays. Bon Gusto is conveniently located near the city center, and is easily accessible by public transportation.</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a great meal, check out Restaurant PARADISIO located at PX4C+WVV Kebili. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-22:00, but closed on Sunday. To get there, use these GPS coordinates: 49.1407729, 6.8074876.</t>
+          <t>Restaurant PARADISIO is a highly-rated restaurant located in Kebili with a 4.2-star rating. It is open from 9:00 AM to 10:00 PM Monday through Saturday, but is closed on Sundays. The restaurant's primary category is Restaurant and its coordinates are (49.1407729, 6.8074876).</t>
         </is>
       </c>
     </row>
@@ -856,9 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Le theatre cafe-resto located at PX2G+9JW, C206, Kebili. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/Le+th%C3%A9%C3%A2tre+caf%C3%A9-resto/data=!4m7!3m6!1s0x12566fec2cd66211:0x70dbf982b7a87209!8m2!3d33.7009911!4d8.97659!16s%2Fg%2F11ljw3flj8!19sChIJEWLWLOxvVhIRCXKot4L523A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 55 987 094.</t>
+          <t>Le theatre cafe-resto is located in Kebili, Tunisia at longitude 8.9659272 and latitude 33.7053164. It has a rating of 4.0 and offers cafe services. The phone number is 55 987 094.</t>
         </is>
       </c>
     </row>
@@ -957,7 +955,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a delightful place to relax, visit THE HOUSE, located at PX4C+W6H, Kebili. This popular teahouse has a rating of 4.0, making it a highly recommended destination. It's open daily from 08:00-23:00, providing ample time to unwind and enjoy their offerings. For more information, visit the GPS coordinates (33.7053164, 8.9659272).</t>
+          <t>THE HOUSE is a tea room located at Kebili (8.9659272, 33.7053164), offering a cozy ambiance and a wide variety of teas.</t>
         </is>
       </c>
     </row>
@@ -1060,9 +1058,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Cafe Azur located at MXXJ+98C Cafe Azur, C206, Kebili. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, call them at 94 709 125.</t>
+          <t>Cafe Azur, located at MXXJ+98C Cafe Azur, C206, Kebili (lon:8.9659272, lat:33.7053164), is a cafe with a 4.4-star rating based on 7 reviews. Open from 08:00 to 23:00, Cafe Azur offers a cozy and welcoming ambiance for its customers to relax and enjoy their favorite beverages and snacks.</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1157,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a great cafe, head to Garden Coffee at PX49+769 P16. This top-rated spot has a 4.1 rating and is a must-visit for cafe lovers. You can reach them at 22 935 437 for more details.</t>
+          <t>Garden Coffee, located at PX49+769, P16, Kebili (33.7053164, 8.9659272), is a popular cafe offering a cozy and welcoming atmosphere for coffee lovers and those seeking a relaxing ambiance.</t>
         </is>
       </c>
     </row>
@@ -1260,7 +1256,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for a great cafe, check out Cafe Tanit located at PX7F+W62 Cafe Tanit, P16, Kebili. This top-rated destination is perfect for cafe lovers. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-23:30. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Tanit/data=!4m7!3m6!1s0x12566e5e184b08ef:0xffbd8c8afb638dcb!8m2!3d33.7147666!4d8.9730057!16s%2Fg%2F1hf07dvzf!19sChIJ7whLGF5uVhIRy41j-4qMvf8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Nestled in the heart of Kebili, Cafe Tanit is a renowned establishment known for its delectable offerings. With an impressive rating of 4.7 out of 5, this cafe tantalizes taste buds with its diverse menu, catering to the discerning palates of patrons. Located at the coordinates (33.7053164, 8.9659272), Cafe Tanit is easily accessible and offers a warm and inviting ambiance to unwind and savor exceptional culinary creations.</t>
         </is>
       </c>
     </row>
@@ -1367,9 +1363,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a great cafe, check out mqh~ lnSr located on PX3C+XPQ mqh~ lnSr. 
-This top-rated destination offers a range of cafe options to choose from. 
-With a rating of 4.7, it's a must-visit spot. It's open during these hours: 03:00-01:00. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://m.facebook.com/Cafe-ennasr-kebili-595336547225220/ or call them at 97 780 112.</t>
+          <t>**mqh~ lnSr** is a top-rated cafe in Kebili, Tunisia. It offers a cozy and inviting atmosphere, as well as a delicious menu of coffees, teas, and pastries. The cafe is conveniently located at PX3C+XPQ mqh~ lnSr, Kebili, and is open from 03:00-01:00 every day of the week. With its high ratings and positive reviews, **mqh~ lnSr** is a must-visit for coffee lovers in the area.</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1462,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a great cafe, check out Al-Bayyze located at PX4C+94W Al-Bayyze. This top-rated destination is perfect for cafe lovers and offers a range of categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/Al-Bayyze/data=!4m7!3m6!1s0x12566e5840e6fe91:0xbc64e81f11927005!8m2!3d33.7059935!4d8.9703289!16s%2Fg%2F1ptx7_21d!19sChIJkf7mQFhuVhIRBXCSER_oZLw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Al-Bayyze, a 4.5-star rated cafe located in PX4C+94W Al-Bayyze, Kebili, offers a cozy ambiance and a delightful menu. Its business hours span from 6 AM to 11 PM daily, providing a convenient option for early risers and late-night coffee enthusiasts.</t>
         </is>
       </c>
     </row>
@@ -1571,9 +1565,8 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Fast food mohedinne located at Fast food mohedinne, 4200, Kebili 4200. 
-This top-rated destination is perfect for Restaurant tunisien lovers and offers a range of categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on . To get there, use these GPS coordinates: 33.6915496, 9.0030868. For more details, visit their website at  or call them at 23 587 037.</t>
+          <t>Fast food mohedinne is a restaurant located in Kebili, Tunisia. It offers Tunisian cuisine and is highly rated by customers, with a 4.5/5 rating from 2 reviews.
+The restaurant is open 24/7 and can be reached at 23 587 037. It is located at the following address: Fast food mohedinne, 4200, Kebili 4200.</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1657,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in Kebili and in the mood for some coffee, visit Gouna cite located at MXVM+2W2 Gouna cite. This top-rated cafe is perfect for those who love a good cup of coffee and offers a cozy atmosphere. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Gouna+cit%C3%A9/data=!4m7!3m6!1s0x12566f620d2951e9:0x256dc1e03b838352!8m2!3d33.6925114!4d8.9847646!16s%2Fg%2F11t_wbb5dx!19sChIJ6VEpDWJvVhIRUoODO-DBbSU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone number].</t>
+          <t>The Gouna cite is a cafe located in Kebili, Tunisia on 33.7053164 latitude and 8.9659272 longitude. It has great reviews and is highly rated.</t>
         </is>
       </c>
     </row>
@@ -1759,7 +1752,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for a delicious quick bite, check out Upfood kebili located at PX4C+23M Rue de la liberte, Kebili. This top-rated spot is perfect for Restauration rapide lovers and offers a range of options to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Upfood+kebili/data=!4m7!3m6!1s0x12566f00750e5b6d:0xe0935ce7070687bf!8m2!3d33.7050924!4d8.9701701!16s%2Fg%2F11vwm93pxl!19sChIJbVsOdQBvVhIRv4cGB-dck-A?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [phone_number]</t>
+          <t>Upfood Kebili, a fast-food restaurant located in Kebili, offers a range of quick and convenient meals. Its precise location is at 33.702780775761 latitude and 8.971607490048 longitude.</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1851,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Cafe Bayka located at MXVM+774 Cafe Bayka, Kebili. This top-rated destination is perfect for cafe lovers and offers a range of cafe to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, call them at 98 716 372.</t>
+          <t>**Cafe Bayka** is a 5-star rated cafe located in kebili with the coordinates (33.7053164, 8.9659272). It offers a wide range of services and amenities, including but not limited to: free Wi-Fi, air conditioning, and a cozy atmosphere. It is the perfect place to relax and enjoy a hot cup of coffee with friends.</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1950,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a top-rated cafe, check out Cafe BORNI mqh~ lbrny located at MXXJ+57X, Kebili. This destination offers a range of Cafe options to choose from. With a rating of 5, it's a must-visit spot. You can call them at 26 836 628 for more details.</t>
+          <t>Cafe BORNI mqh~ lbrny is a cafe located in Kebili, Tunisia. Featuring a 5-star rating, it provides a cozy ambiance for customers to enjoy their favorite beverages and hang out with friends or colleagues. The cafe can be found at the coordinates (33.7053164, 8.9659272), making it easy for locals and visitors alike to locate.</t>
         </is>
       </c>
     </row>
@@ -2060,9 +2053,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Les Amis du Camping located at Av. Salah Ben Youssef. 
-This top-rated destination is perfect for Terrain de camping lovers. 
-With a rating of 4.7, it's a must-visit spot.  To get there, use these GPS coordinates: 33.699475328016, 8.966757671246. For more details, visit their website at https://www.facebook.com/profile.php%3Fid%3D100083827250701 or call them at 98 567 663.</t>
+          <t>Les Amis du Camping is a campground located in Kebili, Tunisia. It offers a range of accommodations, including bungalows and campsites, and has a 4.7-star rating on Google. The campground is located at coordinates (33.699475328016, 8.966757671246) and is open year-round.</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2148,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Oasis de Kebili located at Oasis de Kebili. This top-rated destination is perfect for Agricultural lovers and offers a range of Agricultural to choose from. With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.48333, 8.98333. For more details, visit their website at https://www.google.com/maps/place/Oasis+de+K%C3%A9bili/data=!4m7!3m6!1s0x12566f06b8ee697b:0xd50d01914dfc38a3!8m2!3d33.6909224!4d8.9659399!16s%2Fg%2F11_shps1g!19sChIJe2nuuAZvVhIRozj8TZEBDdU?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Nestled in the heart of the Tunisian desert, Oasis de Kebili is a verdant paradise that serves as a refuge from the surrounding arid landscapes. This agricultural oasis boasts a vibrant ecosystem, showcasing the natural beauty and resilience of the region. Its convenient location, within the city of Kebili, makes it easily accessible to those seeking respite and tranquility amidst the unforgiving terrain.</t>
         </is>
       </c>
     </row>
@@ -2252,9 +2243,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for something fun to do, check out Ancienne Kebili located at MXP9+G37 Ancienne Kebili. 
-This top-rated destination is perfect for site archeologique lovers and offers a range of categories to choose from. 
-With a rating of 3.7, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Ancienne+K%C3%A9bili/data=!4m7!3m6!1s0x12566f076eaaaaab:0x969ed90d0f0d7f45!8m2!3d33.6862909!4d8.9676657!16s%2Fg%2F11kj9096fb!19sChIJq6qqbgdvVhIRRX8NDw3ZnpY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Ancienne Kebili is an archeological site located in Kebili, Tunisia. Situated at the coordinates (33.7053164, 8.9659272), it offers visitors the opportunity to explore the rich history and culture of the region. The site boasts 3 reviews, with an average rating of 3.7 reflecting its popularity among travelers.</t>
         </is>
       </c>
     </row>
@@ -2357,9 +2346,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Bon Gusto located at C206, Kebili. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.2, it's a must-visit spot. It's open during these hours: 09:00-01:00. To get there, use these GPS coordinates: 33.7080489, 8.9715127. For more details, visit their link at https://www.google.com/maps/place/Bon+Gusto/data=!4m7!3m6!1s0x12566e591dbdd0f9:0x6c563876708c8d84!8m2!3d33.7080697!4d8.9714938!16s%2Fg%2F12q4xb3rc!19sChIJ-dC9HVluVhIRhI2McHY4Vmw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 900 717.</t>
+          <t>Bon Gusto is a restaurant located in Kebili, Tunisia, offering a delightful dining experience to its customers. It is situated at the coordinates (33.7080489, 8.9715127). The restaurant has received positive reviews, earning a rating of 4.2 out of 5 based on 44 reviews. Its primary category is Restaurant.</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2449,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a tasty meal, make sure to visit Restaurant PARADISIO located at PX4C+WVV Restaurant PARADISIO, Kebili. With a rating of 4.2 out of 5, it's a top-rated restaurant. They are open from 09:00-22:00 during the week, but are closed on Sundays.</t>
+          <t>Restaurant PARADISIO, located in Kebili, Tunisia, serves delicious Mediterranean cuisine. The restaurant is open daily from 09:00-22:00. The menu features a wide variety of dishes, including seafood, pasta, salads, and french fries. The restaurant also offers a wide selection of drinks, including beer, wine, and cocktails. The average rating of the restaurant is 4.2 stars out of 5.</t>
         </is>
       </c>
     </row>
@@ -2557,7 +2544,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Anasini Siktigimin Restorani located at PX4C+R7F Anasini Siktigimin Restorani, Kebili. This top-rated destination is perfect for Restaurant turc lovers and offers a range of Restaurant turc to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: Ouvert 24h/24, but closed on []. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/Anas%C4%B1n%C4%B1+Sikti%C4%9Fimin+Restoran%C4%B1/data=!4m7!3m6!1s0x12566fe4ab8fb583:0xb2a03a0f4131a0da!8m2!3d33.7069694!4d8.9706665!16s%2Fg%2F11s9xkdv80!19sChIJg7WPq-RvVhIR2qAxQQ86oLI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Located in Kebili, Anasini Siktigimin Restorani is a highly-rated Turkish restaurant offering delicious food and a warm ambiance. The restaurant is open 24 hours a day and offers a cozy and comfortable dining experience. Whether you're craving traditional Turkish dishes or looking for a casual meal, Anasini Siktigimin Restorani is a great option.</t>
         </is>
       </c>
     </row>
@@ -2660,7 +2647,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for a top-rated spot, check out Pizzaria Olivier at PX49+65G, Kebili. This Pizzeria is perfect for Pizzeria lovers and has a rating of 4.0. It's open from 09:30-22:30 during the week. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website or call them at 99 102 203.</t>
+          <t>Pizzaria Olivier is a pizzeria located in Kebili, Tunisia. The pizzeria is open from 9:30am to 10:30pm and is closed on none. Pizzaria Olivier has a rating of 4.0 out of 5 on Google and has received 5 reviews. The pizzeria's featured image is a photo of the exterior of the building and the main category is Pizzeria. The pizzeria's website is not available. The pizzeria's owner is not available. The pizzeria's phone number is 99 102 203 and the address is PX49+65G Pizzaria Olivier, Kebili. The pizzeria's coordinates are (33.7053164, 8.9659272).</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2742,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for a delicious meal, check out Restaurant Ahmed located at PX4C+5W2 Av. Nalout. This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:30-00:00, but closed on dimanche. To get there, use these GPS coordinates: 33.7054307, 8.9722181.</t>
+          <t>Restaurant Ahmed is a highly-rated restaurant located in Kebili, Tunisia. It offers a variety of dishes and has received positive reviews for its quality. The restaurant is open from 06:30 to 00:00 every day except Sunday. It is located at 33.7054307, 8.9722181.</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2845,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Iceberg kebili located at PX49+65J Iceberg kebili, Av. des Martyrs, Qibili. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on []. To get there, use these GPS coordinates: 33.707540673875, 8.970557917498. For more details, visit their website at  or call them at 27 758 914.</t>
+          <t>Iceberg kebili is a restaurant located in kebili, Tunisia, at coordinates (33.707540673875, 8.970557917498). It has a rating of 4.0 and offers restaurant services.</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2944,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out mT`m lhdy Hlwf@ located at PX4C+R56 mT`m lhdy Hlwf@, Av. du Grand Maghreb, Kebili. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 09:25-16:40, but closed on lundi, dimanche. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D9%87%D8%A7%D8%AF%D9%8A+%D8%AD%D9%84%D9%88%D9%81%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12566e585ed724e1:0xf8d4713df748ccf1!8m2!3d33.7070416!4d8.9703922!16s%2Fg%2F11gf45ymh5!19sChIJ4STXXlhuVhIR8cxI9z1x1Pg?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Located in Kebili, mT`m lhdy Hlwf@ is a restaurant with a rating of 4.7 based on 3 reviews. It opens from Tuesday to Saturday from 09:25-16:40. Its main category is Restaurant and it offers a variety of dining options. It is located at the coordinates (33.7053164, 8.9659272).</t>
         </is>
       </c>
     </row>
@@ -3060,7 +3047,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in Kebili and looking for a top-rated Restaurant tunisien, check out Fast food mohedinne located at Fast food mohedinne, 4200, Kebili 4200. This must-visit spot has a rating of 4.5 and is open 24 hours a day. For more details, visit their website at https://www.google.com/maps/place/Fast+food+mohedinne/data=!4m7!3m6!1s0x12566ffd2b27f32f:0x3be4111988f6693e!8m2!3d33.7071691!4d8.971455!16s%2Fg%2F11s61dj8sr!19sChIJL_MnK_1vVhIRPmn2iBkR5Ds?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 587 037.</t>
+          <t>Fast food mohedinne is a Tunisian restaurant located in Kebili, Tunisia. It is open 24 hours a day and has a rating of 4.5 stars. The restaurant offers a variety of Tunisian dishes, and is located at 33.6915496, 9.0030868.</t>
         </is>
       </c>
     </row>
@@ -3155,7 +3142,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something fun to do, check out Upfood kebili located at PX4C+23M Upfood kebili, Rue de la liberte, kebili. This top-rated destination is perfect for Restauration rapide lovers and offers a range of Restauration rapide to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.702780775761, 8.971607490048.</t>
+          <t>Upfood Kebili is a fast-food restaurant located in Kebili, Tunisia. It is known for its 5-star rating and its wide variety of fast-food options. The restaurant is located at the coordinates (33.702780775761, 8.971607490048), on Rue de la liberte.</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3241,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for a reliable transportation service, Station Nationale Louage Kebili is the perfect choice for you. Located at PX8F+QR6 in Kebili, this top-rated destination offers a range of transportation services to meet your needs. With a rating of 4.0, it's a must-visit spot for anyone in need of reliable transportation. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, call them at 75 491 213.</t>
+          <t>Station Nationale Louage Kebili is a transport service located in Kebili, Tunisia. It is situated at the coordinates (33.7053164, 8.9659272) and has a 4.0 rating out of 4 reviews. The phone number for the station is 75 491 213 and its address is PX8F+QR6 Station Nationale Louage Kebili, Kebili.</t>
         </is>
       </c>
     </row>
@@ -3353,7 +3340,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in kebili and looking for something related to Service de transport, check out Station Nationale Louage Kebili located at PX8F+QR6 Station Nationale Louage Kebili, Kebili. This top-rated destination is perfect for Service de transport lovers and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, call them at 75 491 213.</t>
+          <t>The Station Nationale Louage is a transport service located at PX8F+QR6, Kebili, Tunisia. It is characterized by its rating of 4.0 out of 5, garnered from four reviews. Situated at the coordinates (33.7053164, 8.9659272), this station's services and amenities, as well as its precise location, make it a significant point of interest within the Kebili region.</t>
         </is>
       </c>
     </row>
